--- a/resources/data-imports/Monsters/monsters.xlsx
+++ b/resources/data-imports/Monsters/monsters.xlsx
@@ -4382,6 +4382,12 @@
       <c r="N20">
         <v>0.0085</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>1</v>
       </c>
@@ -4444,6 +4450,12 @@
       </c>
       <c r="AL20">
         <v>0</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN20">
+        <v>0.15</v>
       </c>
       <c r="AO20" t="s">
         <v>52</v>
@@ -22839,6 +22851,12 @@
       <c r="N187">
         <v>0.0183</v>
       </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
       <c r="R187">
         <v>1</v>
       </c>
@@ -22902,11 +22920,8 @@
       <c r="AL187">
         <v>0</v>
       </c>
-      <c r="AM187" t="s">
-        <v>65</v>
-      </c>
       <c r="AN187">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO187" t="s">
         <v>333</v>

--- a/resources/data-imports/Monsters/monsters.xlsx
+++ b/resources/data-imports/Monsters/monsters.xlsx
@@ -212,72 +212,72 @@
     <t>4-7</t>
   </si>
   <si>
+    <t>Baby Green Dragon</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>Blacksmith's Book</t>
+  </si>
+  <si>
+    <t>Dark Shadow</t>
+  </si>
+  <si>
+    <t>7-14</t>
+  </si>
+  <si>
+    <t>Small Black Carved Box</t>
+  </si>
+  <si>
+    <t>Pirate Master</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>Flask Of Fresh Air</t>
+  </si>
+  <si>
+    <t>Litch</t>
+  </si>
+  <si>
+    <t>14-28</t>
+  </si>
+  <si>
+    <t>Great White Dragon</t>
+  </si>
+  <si>
+    <t>21-41</t>
+  </si>
+  <si>
+    <t>Bloody Reaper</t>
+  </si>
+  <si>
+    <t>30-59</t>
+  </si>
+  <si>
+    <t>Stories of The Children</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>43-85</t>
+  </si>
+  <si>
+    <t>Scroll of the Children</t>
+  </si>
+  <si>
+    <t>Umbering Spirit Lord</t>
+  </si>
+  <si>
+    <t>61-122</t>
+  </si>
+  <si>
     <t>Spell Weaving Book</t>
   </si>
   <si>
-    <t>Baby Green Dragon</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>Blacksmith's Book</t>
-  </si>
-  <si>
-    <t>Dark Shadow</t>
-  </si>
-  <si>
-    <t>7-14</t>
-  </si>
-  <si>
-    <t>Small Black Carved Box</t>
-  </si>
-  <si>
-    <t>Pirate Master</t>
-  </si>
-  <si>
-    <t>10-20</t>
-  </si>
-  <si>
-    <t>Flask Of Fresh Air</t>
-  </si>
-  <si>
-    <t>Litch</t>
-  </si>
-  <si>
-    <t>14-28</t>
-  </si>
-  <si>
-    <t>Great White Dragon</t>
-  </si>
-  <si>
-    <t>21-41</t>
-  </si>
-  <si>
-    <t>Bloody Reaper</t>
-  </si>
-  <si>
-    <t>30-59</t>
-  </si>
-  <si>
-    <t>Stories of The Children</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>43-85</t>
-  </si>
-  <si>
-    <t>Scroll of the Children</t>
-  </si>
-  <si>
-    <t>Umbering Spirit Lord</t>
-  </si>
-  <si>
-    <t>61-122</t>
-  </si>
-  <si>
     <t>Witch's Demon</t>
   </si>
   <si>
@@ -1115,6 +1115,9 @@
     <t>630-1260</t>
   </si>
   <si>
+    <t>Dungeon Ink</t>
+  </si>
+  <si>
     <t>Devil's Lover</t>
   </si>
   <si>
@@ -1137,9 +1140,6 @@
   </si>
   <si>
     <t>2832-5664</t>
-  </si>
-  <si>
-    <t>Dungeon Ink</t>
   </si>
   <si>
     <t>Water Fiend</t>
@@ -2868,6 +2868,12 @@
       <c r="N7">
         <v>0.0018</v>
       </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
       <c r="R7">
         <v>1</v>
       </c>
@@ -2931,11 +2937,8 @@
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="AM7" t="s">
-        <v>65</v>
-      </c>
       <c r="AN7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="s">
         <v>52</v>
@@ -2946,7 +2949,7 @@
         <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3006,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA8">
         <v>10</v>
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN8">
         <v>0.18</v>
@@ -3062,7 +3065,7 @@
         <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3128,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA9">
         <v>14</v>
@@ -3170,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN9">
         <v>0.25</v>
@@ -3184,7 +3187,7 @@
         <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3244,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA10">
         <v>20</v>
@@ -3286,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN10">
         <v>0.01</v>
@@ -3300,7 +3303,7 @@
         <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>28</v>
@@ -3338,6 +3341,12 @@
       <c r="N11">
         <v>0.0029</v>
       </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
       <c r="R11">
         <v>1</v>
       </c>
@@ -3360,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA11">
         <v>28</v>
@@ -3401,11 +3410,8 @@
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="AM11" t="s">
-        <v>65</v>
-      </c>
       <c r="AN11">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="s">
         <v>52</v>
@@ -3416,7 +3422,7 @@
         <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>41</v>
@@ -3476,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA12">
         <v>41</v>
@@ -3526,7 +3532,7 @@
         <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>59</v>
@@ -3592,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA13">
         <v>59</v>
@@ -3634,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN13">
         <v>0.15</v>
@@ -3648,7 +3654,7 @@
         <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>85</v>
@@ -3714,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA14">
         <v>85</v>
@@ -3756,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AN14">
         <v>0.4</v>
@@ -3770,7 +3776,7 @@
         <v>320</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>122</v>
@@ -3830,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA15">
         <v>122</v>
@@ -3872,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AN15">
         <v>0.16</v>
@@ -4452,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="AN20">
         <v>0.15</v>
@@ -9616,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="Y67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA67">
         <v>10</v>
@@ -9726,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="Y68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA68">
         <v>14</v>
@@ -9836,10 +9842,10 @@
         <v>0</v>
       </c>
       <c r="Y69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA69">
         <v>20</v>
@@ -9946,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="Y70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA70">
         <v>28</v>
@@ -10056,10 +10062,10 @@
         <v>0</v>
       </c>
       <c r="Y71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA71">
         <v>41</v>
@@ -10166,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="Y72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA72">
         <v>59</v>
@@ -10276,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="Y73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA73">
         <v>85</v>
@@ -10386,10 +10392,10 @@
         <v>0</v>
       </c>
       <c r="Y74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA74">
         <v>122</v>
@@ -20869,10 +20875,10 @@
         <v>0</v>
       </c>
       <c r="Y169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA169">
         <v>10</v>
@@ -20979,10 +20985,10 @@
         <v>0</v>
       </c>
       <c r="Y170" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z170" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA170">
         <v>14</v>
@@ -22283,6 +22289,12 @@
       <c r="N182">
         <v>0.01</v>
       </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
       <c r="R182">
         <v>1</v>
       </c>
@@ -22345,6 +22357,12 @@
       </c>
       <c r="AL182">
         <v>0</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN182">
+        <v>0.17</v>
       </c>
       <c r="AO182" t="s">
         <v>333</v>
@@ -22355,7 +22373,7 @@
         <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C183">
         <v>1835</v>
@@ -22415,10 +22433,10 @@
         <v>0</v>
       </c>
       <c r="Y183" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z183" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA183">
         <v>1835</v>
@@ -22465,7 +22483,7 @@
         <v>168</v>
       </c>
       <c r="B184" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C184">
         <v>2672</v>
@@ -22525,10 +22543,10 @@
         <v>0</v>
       </c>
       <c r="Y184" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z184" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA184">
         <v>2672</v>
@@ -22581,7 +22599,7 @@
         <v>169</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C185">
         <v>3890</v>
@@ -22641,10 +22659,10 @@
         <v>0</v>
       </c>
       <c r="Y185" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z185" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA185">
         <v>3890</v>
@@ -22691,7 +22709,7 @@
         <v>170</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C186">
         <v>5664</v>
@@ -22757,10 +22775,10 @@
         <v>0</v>
       </c>
       <c r="Y186" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z186" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA186">
         <v>5664</v>
@@ -22798,11 +22816,8 @@
       <c r="AL186">
         <v>0</v>
       </c>
-      <c r="AM186" t="s">
-        <v>374</v>
-      </c>
       <c r="AN186">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AO186" t="s">
         <v>333</v>
@@ -23804,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="AM195" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AN195">
         <v>0.01</v>
@@ -27288,10 +27303,10 @@
         <v>0</v>
       </c>
       <c r="Y227" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z227" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA227">
         <v>10</v>
@@ -27398,10 +27413,10 @@
         <v>0</v>
       </c>
       <c r="Y228" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z228" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA228">
         <v>14</v>
@@ -27508,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="Y229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA229">
         <v>20</v>
@@ -27618,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="Y230" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z230" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA230">
         <v>28</v>
@@ -27734,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="Y231" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z231" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA231">
         <v>41</v>
@@ -27850,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="Y232" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z232" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA232">
         <v>59</v>
@@ -27960,10 +27975,10 @@
         <v>0</v>
       </c>
       <c r="Y233" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z233" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA233">
         <v>85</v>
@@ -28070,10 +28085,10 @@
         <v>0</v>
       </c>
       <c r="Y234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA234">
         <v>122</v>
@@ -33790,10 +33805,10 @@
         <v>0</v>
       </c>
       <c r="Y286" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z286" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA286">
         <v>10</v>
@@ -33900,10 +33915,10 @@
         <v>0</v>
       </c>
       <c r="Y287" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z287" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA287">
         <v>14</v>
@@ -34010,10 +34025,10 @@
         <v>0</v>
       </c>
       <c r="Y288" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z288" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA288">
         <v>20</v>
@@ -34120,10 +34135,10 @@
         <v>0</v>
       </c>
       <c r="Y289" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z289" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA289">
         <v>28</v>
@@ -34236,10 +34251,10 @@
         <v>0</v>
       </c>
       <c r="Y290" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z290" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA290">
         <v>41</v>
@@ -34352,10 +34367,10 @@
         <v>0</v>
       </c>
       <c r="Y291" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z291" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA291">
         <v>59</v>
@@ -34462,10 +34477,10 @@
         <v>0</v>
       </c>
       <c r="Y292" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z292" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA292">
         <v>85</v>
@@ -34572,10 +34587,10 @@
         <v>0</v>
       </c>
       <c r="Y293" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z293" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA293">
         <v>122</v>

--- a/resources/data-imports/Monsters/monsters.xlsx
+++ b/resources/data-imports/Monsters/monsters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="739">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2105,6 +2105,138 @@
   </si>
   <si>
     <t xml:space="preserve">Child of the Failed Ascension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delusional Haunted Child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delusional Memories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang of the devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prophet of The Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heretical Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wailing ghost of despair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fated Angelic Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar of Heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delusional Time God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shattered Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Traumatic Red Hawk Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupted Federation Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemy infused Cleric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortured Goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nameless lies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of the barren waste land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delusional Corrupted Time Jester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloody Memory of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litch of life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy Knight of The Church</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerald Ancient Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of both Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampric Bishop of Yesteryear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancer of the children's dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echos of Silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creature of the deep sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisted Judgment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisted Memory of The Wandering Merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Balrog of Kalitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child of the one true God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historian of Twisted Delusional Thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin keeper of Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast of the worlds depths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrieking Goddess of the Banshee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Times Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloaked Figure of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judge of Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judge of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judge of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Mage of Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delusional Creator</t>
   </si>
 </sst>
 </file>
@@ -2312,10 +2444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:AW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO382" activeCellId="0" sqref="AO382:AO424"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO471" activeCellId="0" sqref="AO471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39962,7 +40094,6 @@
       <c r="AV339" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD339" s="0"/>
     </row>
     <row r="340" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
@@ -40085,7 +40216,6 @@
       <c r="AV340" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD340" s="0"/>
     </row>
     <row r="341" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
@@ -40208,7 +40338,6 @@
       <c r="AV341" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD341" s="0"/>
     </row>
     <row r="342" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
@@ -40331,7 +40460,6 @@
       <c r="AV342" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD342" s="0"/>
     </row>
     <row r="343" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
@@ -40454,7 +40582,6 @@
       <c r="AV343" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD343" s="0"/>
     </row>
     <row r="344" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
@@ -40583,7 +40710,6 @@
       <c r="AV344" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD344" s="0"/>
     </row>
     <row r="345" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
@@ -40706,7 +40832,6 @@
       <c r="AV345" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD345" s="0"/>
     </row>
     <row r="346" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
@@ -40829,7 +40954,6 @@
       <c r="AV346" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD346" s="0"/>
     </row>
     <row r="347" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
@@ -40952,7 +41076,6 @@
       <c r="AV347" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD347" s="0"/>
     </row>
     <row r="348" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
@@ -41075,7 +41198,6 @@
       <c r="AV348" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD348" s="0"/>
     </row>
     <row r="349" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
@@ -41198,7 +41320,6 @@
       <c r="AV349" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD349" s="0"/>
     </row>
     <row r="350" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
@@ -41321,7 +41442,6 @@
       <c r="AV350" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD350" s="0"/>
     </row>
     <row r="351" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
@@ -41444,7 +41564,6 @@
       <c r="AV351" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD351" s="0"/>
     </row>
     <row r="352" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
@@ -41567,7 +41686,6 @@
       <c r="AV352" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD352" s="0"/>
     </row>
     <row r="353" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
@@ -41690,7 +41808,6 @@
       <c r="AV353" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD353" s="0"/>
     </row>
     <row r="354" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
@@ -41813,7 +41930,6 @@
       <c r="AV354" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD354" s="0"/>
     </row>
     <row r="355" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
@@ -41936,7 +42052,6 @@
       <c r="AV355" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD355" s="0"/>
     </row>
     <row r="356" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
@@ -42059,7 +42174,6 @@
       <c r="AV356" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD356" s="0"/>
     </row>
     <row r="357" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
@@ -42188,7 +42302,6 @@
       <c r="AV357" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD357" s="0"/>
     </row>
     <row r="358" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
@@ -42311,7 +42424,6 @@
       <c r="AV358" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD358" s="0"/>
     </row>
     <row r="359" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
@@ -42434,7 +42546,6 @@
       <c r="AV359" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD359" s="0"/>
     </row>
     <row r="360" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
@@ -42557,7 +42668,6 @@
       <c r="AV360" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD360" s="0"/>
     </row>
     <row r="361" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
@@ -42680,7 +42790,6 @@
       <c r="AV361" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD361" s="0"/>
     </row>
     <row r="362" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
@@ -42803,7 +42912,6 @@
       <c r="AV362" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD362" s="0"/>
     </row>
     <row r="363" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
@@ -42926,7 +43034,6 @@
       <c r="AV363" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD363" s="0"/>
     </row>
     <row r="364" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
@@ -43049,7 +43156,6 @@
       <c r="AV364" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD364" s="0"/>
     </row>
     <row r="365" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
@@ -43172,7 +43278,6 @@
       <c r="AV365" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD365" s="0"/>
     </row>
     <row r="366" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
@@ -43295,7 +43400,6 @@
       <c r="AV366" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD366" s="0"/>
     </row>
     <row r="367" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
@@ -43418,7 +43522,6 @@
       <c r="AV367" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD367" s="0"/>
     </row>
     <row r="368" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
@@ -43541,7 +43644,6 @@
       <c r="AV368" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD368" s="0"/>
     </row>
     <row r="369" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
@@ -43664,7 +43766,6 @@
       <c r="AV369" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD369" s="0"/>
     </row>
     <row r="370" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
@@ -43787,7 +43888,6 @@
       <c r="AV370" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD370" s="0"/>
     </row>
     <row r="371" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
@@ -43910,7 +44010,6 @@
       <c r="AV371" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD371" s="0"/>
     </row>
     <row r="372" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
@@ -44033,7 +44132,6 @@
       <c r="AV372" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD372" s="0"/>
     </row>
     <row r="373" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
@@ -44156,7 +44254,6 @@
       <c r="AV373" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD373" s="0"/>
     </row>
     <row r="374" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
@@ -44285,7 +44382,6 @@
       <c r="AV374" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD374" s="0"/>
     </row>
     <row r="375" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
@@ -44408,7 +44504,6 @@
       <c r="AV375" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD375" s="0"/>
     </row>
     <row r="376" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
@@ -44531,7 +44626,6 @@
       <c r="AV376" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD376" s="0"/>
     </row>
     <row r="377" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
@@ -44654,7 +44748,6 @@
       <c r="AV377" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD377" s="0"/>
     </row>
     <row r="378" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
@@ -44777,7 +44870,6 @@
       <c r="AV378" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD378" s="0"/>
     </row>
     <row r="379" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
@@ -44900,7 +44992,6 @@
       <c r="AV379" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD379" s="0"/>
     </row>
     <row r="380" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
@@ -45023,7 +45114,6 @@
       <c r="AV380" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD380" s="0"/>
     </row>
     <row r="381" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
@@ -45146,7 +45236,6 @@
       <c r="AV381" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD381" s="0"/>
     </row>
     <row r="382" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
@@ -45269,7 +45358,6 @@
       <c r="AV382" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD382" s="0"/>
     </row>
     <row r="383" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
@@ -45392,7 +45480,6 @@
       <c r="AV383" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD383" s="0"/>
     </row>
     <row r="384" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
@@ -45515,7 +45602,6 @@
       <c r="AV384" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD384" s="0"/>
     </row>
     <row r="385" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
@@ -45638,7 +45724,6 @@
       <c r="AV385" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD385" s="0"/>
     </row>
     <row r="386" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
@@ -45761,7 +45846,6 @@
       <c r="AV386" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD386" s="0"/>
     </row>
     <row r="387" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
@@ -45890,7 +45974,6 @@
       <c r="AV387" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD387" s="0"/>
     </row>
     <row r="388" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
@@ -46013,7 +46096,6 @@
       <c r="AV388" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD388" s="0"/>
     </row>
     <row r="389" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
@@ -46136,7 +46218,6 @@
       <c r="AV389" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD389" s="0"/>
     </row>
     <row r="390" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
@@ -46259,7 +46340,6 @@
       <c r="AV390" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD390" s="0"/>
     </row>
     <row r="391" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
@@ -46382,7 +46462,6 @@
       <c r="AV391" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD391" s="0"/>
     </row>
     <row r="392" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
@@ -46505,7 +46584,6 @@
       <c r="AV392" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD392" s="0"/>
     </row>
     <row r="393" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
@@ -46628,7 +46706,6 @@
       <c r="AV393" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD393" s="0"/>
     </row>
     <row r="394" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
@@ -46751,7 +46828,6 @@
       <c r="AV394" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD394" s="0"/>
     </row>
     <row r="395" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
@@ -46874,7 +46950,6 @@
       <c r="AV395" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD395" s="0"/>
     </row>
     <row r="396" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
@@ -46997,7 +47072,6 @@
       <c r="AV396" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD396" s="0"/>
     </row>
     <row r="397" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
@@ -47120,7 +47194,6 @@
       <c r="AV397" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD397" s="0"/>
     </row>
     <row r="398" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
@@ -47243,7 +47316,6 @@
       <c r="AV398" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD398" s="0"/>
     </row>
     <row r="399" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
@@ -47366,7 +47438,6 @@
       <c r="AV399" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD399" s="0"/>
     </row>
     <row r="400" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
@@ -47495,7 +47566,6 @@
       <c r="AV400" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD400" s="0"/>
     </row>
     <row r="401" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
@@ -47618,7 +47688,6 @@
       <c r="AV401" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD401" s="0"/>
     </row>
     <row r="402" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
@@ -47741,7 +47810,6 @@
       <c r="AV402" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD402" s="0"/>
     </row>
     <row r="403" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
@@ -47864,7 +47932,6 @@
       <c r="AV403" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD403" s="0"/>
     </row>
     <row r="404" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
@@ -47987,7 +48054,6 @@
       <c r="AV404" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD404" s="0"/>
     </row>
     <row r="405" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
@@ -48110,7 +48176,6 @@
       <c r="AV405" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD405" s="0"/>
     </row>
     <row r="406" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
@@ -48233,7 +48298,6 @@
       <c r="AV406" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD406" s="0"/>
     </row>
     <row r="407" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
@@ -48356,7 +48420,6 @@
       <c r="AV407" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD407" s="0"/>
     </row>
     <row r="408" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
@@ -48479,7 +48542,6 @@
       <c r="AV408" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD408" s="0"/>
     </row>
     <row r="409" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
@@ -48602,7 +48664,6 @@
       <c r="AV409" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD409" s="0"/>
     </row>
     <row r="410" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
@@ -48725,7 +48786,6 @@
       <c r="AV410" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD410" s="0"/>
     </row>
     <row r="411" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
@@ -48848,7 +48908,6 @@
       <c r="AV411" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD411" s="0"/>
     </row>
     <row r="412" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
@@ -48971,7 +49030,6 @@
       <c r="AV412" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD412" s="0"/>
     </row>
     <row r="413" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
@@ -49094,7 +49152,6 @@
       <c r="AV413" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD413" s="0"/>
     </row>
     <row r="414" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
@@ -49217,7 +49274,6 @@
       <c r="AV414" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD414" s="0"/>
     </row>
     <row r="415" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
@@ -49340,7 +49396,6 @@
       <c r="AV415" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD415" s="0"/>
     </row>
     <row r="416" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
@@ -49463,7 +49518,6 @@
       <c r="AV416" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD416" s="0"/>
     </row>
     <row r="417" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
@@ -49592,7 +49646,6 @@
       <c r="AV417" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD417" s="0"/>
     </row>
     <row r="418" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
@@ -49715,7 +49768,6 @@
       <c r="AV418" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD418" s="0"/>
     </row>
     <row r="419" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
@@ -49838,7 +49890,6 @@
       <c r="AV419" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD419" s="0"/>
     </row>
     <row r="420" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
@@ -49961,7 +50012,6 @@
       <c r="AV420" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD420" s="0"/>
     </row>
     <row r="421" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
@@ -50084,7 +50134,6 @@
       <c r="AV421" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD421" s="0"/>
     </row>
     <row r="422" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
@@ -50207,7 +50256,6 @@
       <c r="AV422" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD422" s="0"/>
     </row>
     <row r="423" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="n">
@@ -50330,7 +50378,6 @@
       <c r="AV423" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD423" s="0"/>
     </row>
     <row r="424" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="n">
@@ -50453,7 +50500,5270 @@
       <c r="AV424" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="XFD424" s="0"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="H425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="K425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R425" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S425" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T425" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U425" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="V425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="W425" s="1" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="X425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y425" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z425" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AB425" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AC425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AD425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AE425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AF425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG425" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AH425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO425" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ425" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR425" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS425" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AV425" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="D426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="E426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="F426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="G426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="H426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="I426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="J426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="K426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="L426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="M426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="N426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="R426" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S426" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T426" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U426" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="V426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="W426" s="1" t="n">
+        <v>2980100</v>
+      </c>
+      <c r="X426" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y426" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z426" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="AB426" s="1" t="n">
+        <v>5960200</v>
+      </c>
+      <c r="AC426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AD426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AE426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AF426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AG426" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="AH426" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI426" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ426" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK426" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL426" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO426" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ426" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AR426" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS426" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AV426" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="D427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="E427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="F427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="G427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="H427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="I427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="J427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="K427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="L427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="M427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="N427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="R427" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S427" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T427" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U427" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="V427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="W427" s="1" t="n">
+        <v>3552350</v>
+      </c>
+      <c r="X427" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y427" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z427" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="AB427" s="1" t="n">
+        <v>7104700</v>
+      </c>
+      <c r="AC427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="AD427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="AE427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="AF427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="AG427" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="AH427" s="1" t="n">
+        <v>0.1267</v>
+      </c>
+      <c r="AI427" s="1" t="n">
+        <v>0.1267</v>
+      </c>
+      <c r="AJ427" s="1" t="n">
+        <v>0.1267</v>
+      </c>
+      <c r="AK427" s="1" t="n">
+        <v>0.1267</v>
+      </c>
+      <c r="AL427" s="1" t="n">
+        <v>0.1267</v>
+      </c>
+      <c r="AO427" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ427" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR427" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS427" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AV427" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="D428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="E428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="F428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="G428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="H428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="I428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="J428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="K428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="L428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="M428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="N428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="R428" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S428" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U428" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="V428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="W428" s="1" t="n">
+        <v>4234550</v>
+      </c>
+      <c r="X428" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y428" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z428" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="AB428" s="1" t="n">
+        <v>8469100</v>
+      </c>
+      <c r="AC428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="AD428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="AE428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="AF428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="AG428" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="AH428" s="1" t="n">
+        <v>0.1517</v>
+      </c>
+      <c r="AI428" s="1" t="n">
+        <v>0.1517</v>
+      </c>
+      <c r="AJ428" s="1" t="n">
+        <v>0.1517</v>
+      </c>
+      <c r="AK428" s="1" t="n">
+        <v>0.1517</v>
+      </c>
+      <c r="AL428" s="1" t="n">
+        <v>0.1517</v>
+      </c>
+      <c r="AO428" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ428" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR428" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS428" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV428" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="D429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="E429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="F429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="G429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="H429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="I429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="J429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="K429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="L429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="M429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="N429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="R429" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S429" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U429" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="V429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="W429" s="1" t="n">
+        <v>5047700</v>
+      </c>
+      <c r="X429" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y429" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z429" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="AB429" s="1" t="n">
+        <v>10095400</v>
+      </c>
+      <c r="AC429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="AD429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="AE429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="AF429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="AG429" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="AH429" s="1" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="AI429" s="1" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="AJ429" s="1" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="AK429" s="1" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="AL429" s="1" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="AO429" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ429" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR429" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AS429" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AV429" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="D430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="E430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="F430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="G430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="H430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="I430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="J430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="K430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="L430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="M430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="N430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="P430" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S430" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T430" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U430" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="V430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="W430" s="1" t="n">
+        <v>6017050</v>
+      </c>
+      <c r="X430" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y430" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z430" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="AB430" s="1" t="n">
+        <v>12034100</v>
+      </c>
+      <c r="AC430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AD430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AE430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AF430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AG430" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="AH430" s="1" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="AI430" s="1" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="AJ430" s="1" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="AK430" s="1" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="AL430" s="1" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="AO430" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ430" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AR430" s="1" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AS430" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AV430" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="D431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="E431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="F431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="G431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="H431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="I431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="J431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="K431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="L431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="M431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="N431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="R431" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S431" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T431" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U431" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="V431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="W431" s="1" t="n">
+        <v>7172500</v>
+      </c>
+      <c r="X431" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y431" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z431" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="AB431" s="1" t="n">
+        <v>14345000</v>
+      </c>
+      <c r="AC431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AD431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AE431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AF431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AG431" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AH431" s="1" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="AI431" s="1" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="AJ431" s="1" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="AK431" s="1" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="AL431" s="1" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="AO431" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ431" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR431" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS431" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AV431" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="D432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="E432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="F432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="G432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="H432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="I432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="J432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="K432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="L432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="M432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="N432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="R432" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S432" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U432" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="V432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="W432" s="1" t="n">
+        <v>8549900</v>
+      </c>
+      <c r="X432" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y432" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z432" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="AB432" s="1" t="n">
+        <v>17099800</v>
+      </c>
+      <c r="AC432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AD432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AE432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AF432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AG432" s="1" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AH432" s="1" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="AI432" s="1" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="AJ432" s="1" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="AK432" s="1" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="AL432" s="1" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="AO432" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ432" s="1" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR432" s="1" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AS432" s="1" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AV432" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="D433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="E433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="F433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="G433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="H433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="I433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="J433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="K433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="L433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="N433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="R433" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S433" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T433" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U433" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="V433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="W433" s="1" t="n">
+        <v>10191750</v>
+      </c>
+      <c r="X433" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y433" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z433" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="AB433" s="1" t="n">
+        <v>20383500</v>
+      </c>
+      <c r="AC433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="AD433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="AE433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="AF433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="AG433" s="1" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="AH433" s="1" t="n">
+        <v>0.2767</v>
+      </c>
+      <c r="AI433" s="1" t="n">
+        <v>0.2767</v>
+      </c>
+      <c r="AJ433" s="1" t="n">
+        <v>0.2767</v>
+      </c>
+      <c r="AK433" s="1" t="n">
+        <v>0.2767</v>
+      </c>
+      <c r="AL433" s="1" t="n">
+        <v>0.2767</v>
+      </c>
+      <c r="AO433" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ433" s="1" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AR433" s="1" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AS433" s="1" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AV433" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="D434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="E434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="F434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="G434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="H434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="I434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="J434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="K434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="L434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="M434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="N434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="R434" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S434" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T434" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U434" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="V434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="W434" s="1" t="n">
+        <v>12148900</v>
+      </c>
+      <c r="X434" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y434" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z434" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="AB434" s="1" t="n">
+        <v>24297800</v>
+      </c>
+      <c r="AC434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AD434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AE434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AF434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AG434" s="1" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AH434" s="1" t="n">
+        <v>0.3017</v>
+      </c>
+      <c r="AI434" s="1" t="n">
+        <v>0.3017</v>
+      </c>
+      <c r="AJ434" s="1" t="n">
+        <v>0.3017</v>
+      </c>
+      <c r="AK434" s="1" t="n">
+        <v>0.3017</v>
+      </c>
+      <c r="AL434" s="1" t="n">
+        <v>0.3017</v>
+      </c>
+      <c r="AO434" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ434" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR434" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AS434" s="1" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AV434" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="D435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="E435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="F435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="G435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="H435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="I435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="J435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="K435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="L435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="M435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="N435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="R435" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S435" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U435" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="V435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="W435" s="1" t="n">
+        <v>14481900</v>
+      </c>
+      <c r="X435" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y435" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z435" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="AB435" s="1" t="n">
+        <v>28963800</v>
+      </c>
+      <c r="AC435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="AD435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="AE435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="AF435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="AG435" s="1" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="AH435" s="1" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AI435" s="1" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AJ435" s="1" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AK435" s="1" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AL435" s="1" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AO435" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ435" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR435" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AS435" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AV435" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="D436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="E436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="F436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="G436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="H436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="I436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="J436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="K436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="L436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="M436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="N436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="R436" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S436" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T436" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U436" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="V436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="W436" s="1" t="n">
+        <v>17262900</v>
+      </c>
+      <c r="X436" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y436" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z436" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="AB436" s="1" t="n">
+        <v>34525800</v>
+      </c>
+      <c r="AC436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="AD436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="AE436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="AF436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="AG436" s="1" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="AH436" s="1" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="AI436" s="1" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="AJ436" s="1" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="AK436" s="1" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="AL436" s="1" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="AO436" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ436" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR436" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS436" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AV436" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="D437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="E437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="F437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="G437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="H437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="I437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="J437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="K437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="L437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="M437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="N437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="R437" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S437" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T437" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U437" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="V437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="W437" s="1" t="n">
+        <v>20578000</v>
+      </c>
+      <c r="X437" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y437" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z437" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="AB437" s="1" t="n">
+        <v>41156000</v>
+      </c>
+      <c r="AC437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="AD437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="AE437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="AF437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="AG437" s="1" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="AH437" s="1" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="AI437" s="1" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="AJ437" s="1" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="AK437" s="1" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="AL437" s="1" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="AO437" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ437" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR437" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AS437" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AV437" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="D438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="E438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="F438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="G438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="H438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="I438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="J438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="K438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="L438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="M438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="N438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="R438" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S438" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T438" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U438" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="V438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="W438" s="1" t="n">
+        <v>24529650</v>
+      </c>
+      <c r="X438" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y438" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z438" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="AB438" s="1" t="n">
+        <v>49059300</v>
+      </c>
+      <c r="AC438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AD438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AE438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AF438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AG438" s="1" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AH438" s="1" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="AI438" s="1" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="AJ438" s="1" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="AK438" s="1" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="AL438" s="1" t="n">
+        <v>0.4017</v>
+      </c>
+      <c r="AO438" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ438" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AR438" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AS438" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AV438" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="D439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="E439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="F439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="G439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="H439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="I439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="J439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="K439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R439" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S439" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U439" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="V439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W439" s="1" t="n">
+        <v>29240200</v>
+      </c>
+      <c r="X439" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y439" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z439" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="AB439" s="1" t="n">
+        <v>58480400</v>
+      </c>
+      <c r="AC439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AG439" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH439" s="1" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="AI439" s="1" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="AJ439" s="1" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="AK439" s="1" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="AL439" s="1" t="n">
+        <v>0.4267</v>
+      </c>
+      <c r="AO439" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ439" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR439" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS439" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AV439" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="D440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="E440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="F440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="G440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="H440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="I440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="J440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="K440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="L440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="M440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="R440" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S440" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T440" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U440" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="V440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="W440" s="1" t="n">
+        <v>34855300</v>
+      </c>
+      <c r="X440" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y440" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z440" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="AB440" s="1" t="n">
+        <v>69710600</v>
+      </c>
+      <c r="AC440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="AD440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="AE440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="AF440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="AG440" s="1" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="AH440" s="1" t="n">
+        <v>0.4517</v>
+      </c>
+      <c r="AI440" s="1" t="n">
+        <v>0.4517</v>
+      </c>
+      <c r="AJ440" s="1" t="n">
+        <v>0.4517</v>
+      </c>
+      <c r="AK440" s="1" t="n">
+        <v>0.4517</v>
+      </c>
+      <c r="AL440" s="1" t="n">
+        <v>0.4517</v>
+      </c>
+      <c r="AO440" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ440" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AR440" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS440" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AV440" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="D441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="E441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="F441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="G441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="H441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="I441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="J441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="K441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="L441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="M441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="N441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="R441" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S441" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T441" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U441" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="V441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="W441" s="1" t="n">
+        <v>41548650</v>
+      </c>
+      <c r="X441" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y441" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z441" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="AB441" s="1" t="n">
+        <v>83097300</v>
+      </c>
+      <c r="AC441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="AD441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="AE441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="AF441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="AG441" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="AH441" s="1" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="AI441" s="1" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="AJ441" s="1" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="AK441" s="1" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="AL441" s="1" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="AO441" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ441" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AR441" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS441" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AV441" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="D442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="E442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="F442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="G442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="H442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="I442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="J442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="K442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="L442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="M442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="N442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="R442" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S442" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U442" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="V442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="W442" s="1" t="n">
+        <v>49527400</v>
+      </c>
+      <c r="X442" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y442" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z442" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="AB442" s="1" t="n">
+        <v>99054800</v>
+      </c>
+      <c r="AC442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="AD442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="AE442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="AF442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="AG442" s="1" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="AH442" s="1" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="AI442" s="1" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="AJ442" s="1" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="AK442" s="1" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="AL442" s="1" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="AO442" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ442" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AR442" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS442" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AV442" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="D443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="E443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="F443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="G443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="H443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="I443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="J443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="K443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="L443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="M443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="N443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="P443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S443" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T443" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U443" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="V443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="W443" s="1" t="n">
+        <v>59038350</v>
+      </c>
+      <c r="X443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y443" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z443" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="AB443" s="1" t="n">
+        <v>118076700</v>
+      </c>
+      <c r="AC443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AD443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AE443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AF443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AG443" s="1" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AH443" s="1" t="n">
+        <v>0.5267</v>
+      </c>
+      <c r="AI443" s="1" t="n">
+        <v>0.5267</v>
+      </c>
+      <c r="AJ443" s="1" t="n">
+        <v>0.5267</v>
+      </c>
+      <c r="AK443" s="1" t="n">
+        <v>0.5267</v>
+      </c>
+      <c r="AL443" s="1" t="n">
+        <v>0.5267</v>
+      </c>
+      <c r="AO443" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ443" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR443" s="1" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS443" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AV443" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="D444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="E444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="F444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="G444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="H444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="I444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="J444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="K444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="L444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="M444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="N444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="R444" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S444" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U444" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="V444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="W444" s="1" t="n">
+        <v>70375700</v>
+      </c>
+      <c r="X444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z444" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="AB444" s="1" t="n">
+        <v>140751400</v>
+      </c>
+      <c r="AC444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="AD444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="AE444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="AF444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="AG444" s="1" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="AH444" s="1" t="n">
+        <v>0.5517</v>
+      </c>
+      <c r="AI444" s="1" t="n">
+        <v>0.5517</v>
+      </c>
+      <c r="AJ444" s="1" t="n">
+        <v>0.5517</v>
+      </c>
+      <c r="AK444" s="1" t="n">
+        <v>0.5517</v>
+      </c>
+      <c r="AL444" s="1" t="n">
+        <v>0.5517</v>
+      </c>
+      <c r="AO444" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ444" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR444" s="1" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS444" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AV444" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="D445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="E445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="F445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="G445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="H445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="I445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="J445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="K445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="L445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="M445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="N445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="R445" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S445" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T445" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U445" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="V445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="W445" s="1" t="n">
+        <v>83890250</v>
+      </c>
+      <c r="X445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y445" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z445" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="AB445" s="1" t="n">
+        <v>167780500</v>
+      </c>
+      <c r="AC445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="AD445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="AE445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="AF445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="AG445" s="1" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="AH445" s="1" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="AI445" s="1" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="AJ445" s="1" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="AK445" s="1" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="AL445" s="1" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="AO445" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ445" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR445" s="1" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AS445" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV445" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="D446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="E446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="F446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="G446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="H446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="I446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="J446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="K446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="L446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="M446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="N446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="R446" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S446" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T446" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U446" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="V446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="W446" s="1" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="X446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y446" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z446" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="AB446" s="1" t="n">
+        <v>200000000</v>
+      </c>
+      <c r="AC446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="AD446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="AE446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="AF446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="AG446" s="1" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="AH446" s="1" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="AI446" s="1" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="AJ446" s="1" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="AK446" s="1" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="AL446" s="1" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="AO446" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ446" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AR446" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS446" s="1" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AV446" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="D447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="E447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="F447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="G447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="H447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="I447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="J447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="K447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="L447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="M447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="N447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="R447" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S447" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U447" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="V447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="W447" s="1" t="n">
+        <v>149022050</v>
+      </c>
+      <c r="X447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y447" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z447" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="AB447" s="1" t="n">
+        <v>298044100</v>
+      </c>
+      <c r="AC447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="AD447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="AE447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="AF447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="AG447" s="1" t="n">
+        <v>0.0466</v>
+      </c>
+      <c r="AH447" s="1" t="n">
+        <v>0.6267</v>
+      </c>
+      <c r="AI447" s="1" t="n">
+        <v>0.6267</v>
+      </c>
+      <c r="AJ447" s="1" t="n">
+        <v>0.6267</v>
+      </c>
+      <c r="AK447" s="1" t="n">
+        <v>0.6267</v>
+      </c>
+      <c r="AL447" s="1" t="n">
+        <v>0.6267</v>
+      </c>
+      <c r="AO447" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ447" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AR447" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AS447" s="1" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AV447" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="D448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="E448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="F448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="G448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="H448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="I448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="J448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="K448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="L448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="M448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="N448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="R448" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S448" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T448" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U448" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="V448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="W448" s="1" t="n">
+        <v>179451250</v>
+      </c>
+      <c r="X448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y448" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z448" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="AB448" s="1" t="n">
+        <v>358902500</v>
+      </c>
+      <c r="AC448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="AD448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="AE448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="AF448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="AG448" s="1" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="AH448" s="1" t="n">
+        <v>0.6517</v>
+      </c>
+      <c r="AI448" s="1" t="n">
+        <v>0.6517</v>
+      </c>
+      <c r="AJ448" s="1" t="n">
+        <v>0.6517</v>
+      </c>
+      <c r="AK448" s="1" t="n">
+        <v>0.6517</v>
+      </c>
+      <c r="AL448" s="1" t="n">
+        <v>0.6517</v>
+      </c>
+      <c r="AO448" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ448" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AR448" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS448" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AV448" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="D449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="E449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="F449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="G449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="H449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="I449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="J449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="K449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="L449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="M449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="N449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="R449" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S449" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T449" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U449" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="V449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="W449" s="1" t="n">
+        <v>216093850</v>
+      </c>
+      <c r="X449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y449" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z449" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="AB449" s="1" t="n">
+        <v>432187700</v>
+      </c>
+      <c r="AC449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="AD449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="AE449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="AF449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="AG449" s="1" t="n">
+        <v>0.0661</v>
+      </c>
+      <c r="AH449" s="1" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="AI449" s="1" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="AJ449" s="1" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="AK449" s="1" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="AL449" s="1" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="AO449" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ449" s="1" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR449" s="1" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="AS449" s="1" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AV449" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="D450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="E450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="F450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="G450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="H450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="I450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="J450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="K450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="L450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="M450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="N450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="R450" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S450" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U450" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="V450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="W450" s="1" t="n">
+        <v>260218650</v>
+      </c>
+      <c r="X450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y450" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z450" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="AB450" s="1" t="n">
+        <v>520437300</v>
+      </c>
+      <c r="AC450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="AD450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="AE450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="AF450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="AG450" s="1" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="AH450" s="1" t="n">
+        <v>0.7017</v>
+      </c>
+      <c r="AI450" s="1" t="n">
+        <v>0.7017</v>
+      </c>
+      <c r="AJ450" s="1" t="n">
+        <v>0.7017</v>
+      </c>
+      <c r="AK450" s="1" t="n">
+        <v>0.7017</v>
+      </c>
+      <c r="AL450" s="1" t="n">
+        <v>0.7017</v>
+      </c>
+      <c r="AO450" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ450" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR450" s="1" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS450" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AV450" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="D451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="E451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="F451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="G451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="H451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="I451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="J451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="K451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="L451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="M451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="N451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="R451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S451" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T451" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U451" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="V451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="W451" s="1" t="n">
+        <v>313353350</v>
+      </c>
+      <c r="X451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y451" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z451" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="AB451" s="1" t="n">
+        <v>626706700</v>
+      </c>
+      <c r="AC451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="AD451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="AE451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="AF451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="AG451" s="1" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="AH451" s="1" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="AI451" s="1" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="AJ451" s="1" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="AK451" s="1" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="AL451" s="1" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="AO451" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ451" s="1" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR451" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS451" s="1" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AV451" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="D452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="E452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="F452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="G452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="H452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="I452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="J452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="K452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="L452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="M452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="N452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="R452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S452" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U452" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="V452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="W452" s="1" t="n">
+        <v>377337750</v>
+      </c>
+      <c r="X452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y452" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z452" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="AB452" s="1" t="n">
+        <v>754675500</v>
+      </c>
+      <c r="AC452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="AD452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="AE452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="AF452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="AG452" s="1" t="n">
+        <v>0.1116</v>
+      </c>
+      <c r="AH452" s="1" t="n">
+        <v>0.7517</v>
+      </c>
+      <c r="AI452" s="1" t="n">
+        <v>0.7517</v>
+      </c>
+      <c r="AJ452" s="1" t="n">
+        <v>0.7517</v>
+      </c>
+      <c r="AK452" s="1" t="n">
+        <v>0.7517</v>
+      </c>
+      <c r="AL452" s="1" t="n">
+        <v>0.7517</v>
+      </c>
+      <c r="AO452" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ452" s="1" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR452" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS452" s="1" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AV452" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="D453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="E453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="F453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="G453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="H453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="I453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="J453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="K453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="L453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="M453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="N453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="R453" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S453" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T453" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U453" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="V453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="W453" s="1" t="n">
+        <v>454387300</v>
+      </c>
+      <c r="X453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y453" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z453" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="AB453" s="1" t="n">
+        <v>908774600</v>
+      </c>
+      <c r="AC453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AD453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AE453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AF453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AG453" s="1" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AH453" s="1" t="n">
+        <v>0.7767</v>
+      </c>
+      <c r="AI453" s="1" t="n">
+        <v>0.7767</v>
+      </c>
+      <c r="AJ453" s="1" t="n">
+        <v>0.7767</v>
+      </c>
+      <c r="AK453" s="1" t="n">
+        <v>0.7767</v>
+      </c>
+      <c r="AL453" s="1" t="n">
+        <v>0.7767</v>
+      </c>
+      <c r="AO453" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ453" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AR453" s="1" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS453" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AV453" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="D454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="E454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="F454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="G454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="H454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="I454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="J454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="K454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="L454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="M454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="N454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="R454" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S454" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T454" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U454" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="V454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="W454" s="1" t="n">
+        <v>547169800</v>
+      </c>
+      <c r="X454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y454" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z454" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="AB454" s="1" t="n">
+        <v>1094339600</v>
+      </c>
+      <c r="AC454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="AD454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="AE454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="AF454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="AG454" s="1" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="AH454" s="1" t="n">
+        <v>0.8017</v>
+      </c>
+      <c r="AI454" s="1" t="n">
+        <v>0.8017</v>
+      </c>
+      <c r="AJ454" s="1" t="n">
+        <v>0.8017</v>
+      </c>
+      <c r="AK454" s="1" t="n">
+        <v>0.8017</v>
+      </c>
+      <c r="AL454" s="1" t="n">
+        <v>0.8017</v>
+      </c>
+      <c r="AO454" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ454" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR454" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AS454" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AV454" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="D455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="E455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="F455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="G455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="H455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="I455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="J455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="K455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="L455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="M455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="N455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="R455" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S455" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T455" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U455" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="V455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="W455" s="1" t="n">
+        <v>658897800</v>
+      </c>
+      <c r="X455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y455" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z455" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="AB455" s="1" t="n">
+        <v>1317795600</v>
+      </c>
+      <c r="AC455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="AD455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="AE455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="AF455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="AG455" s="1" t="n">
+        <v>0.1884</v>
+      </c>
+      <c r="AH455" s="1" t="n">
+        <v>0.8517</v>
+      </c>
+      <c r="AI455" s="1" t="n">
+        <v>0.8517</v>
+      </c>
+      <c r="AJ455" s="1" t="n">
+        <v>0.8517</v>
+      </c>
+      <c r="AK455" s="1" t="n">
+        <v>0.8517</v>
+      </c>
+      <c r="AL455" s="1" t="n">
+        <v>0.8517</v>
+      </c>
+      <c r="AO455" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ455" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AR455" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AS455" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AV455" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="D456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="E456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="F456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="G456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="H456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="I456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="J456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="K456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="L456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="M456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="N456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="R456" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S456" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T456" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U456" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="V456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="W456" s="1" t="n">
+        <v>793439850</v>
+      </c>
+      <c r="X456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y456" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z456" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="AB456" s="1" t="n">
+        <v>1586879700</v>
+      </c>
+      <c r="AC456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="AD456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="AE456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="AF456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="AG456" s="1" t="n">
+        <v>0.2243</v>
+      </c>
+      <c r="AH456" s="1" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="AI456" s="1" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="AJ456" s="1" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="AK456" s="1" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="AL456" s="1" t="n">
+        <v>0.8767</v>
+      </c>
+      <c r="AO456" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ456" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR456" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS456" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AV456" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="D457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="E457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="F457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="G457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="H457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="I457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="J457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="K457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="L457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="M457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="N457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="R457" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S457" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U457" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="V457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="W457" s="1" t="n">
+        <v>955454350</v>
+      </c>
+      <c r="X457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y457" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z457" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="AB457" s="1" t="n">
+        <v>1910908700</v>
+      </c>
+      <c r="AC457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="AD457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="AE457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="AF457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="AG457" s="1" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="AH457" s="1" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="AI457" s="1" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="AJ457" s="1" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="AK457" s="1" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="AL457" s="1" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="AO457" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ457" s="1" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AR457" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AS457" s="1" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AV457" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="D458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="E458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="F458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="G458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="H458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="I458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="J458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="K458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="L458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="M458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="N458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="R458" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S458" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U458" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="V458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="W458" s="1" t="n">
+        <v>1150551000</v>
+      </c>
+      <c r="X458" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y458" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z458" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="AB458" s="1" t="n">
+        <v>2301102000</v>
+      </c>
+      <c r="AC458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="AD458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="AE458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="AF458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="AG458" s="1" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="AH458" s="1" t="n">
+        <v>0.9267</v>
+      </c>
+      <c r="AI458" s="1" t="n">
+        <v>0.9267</v>
+      </c>
+      <c r="AJ458" s="1" t="n">
+        <v>0.9267</v>
+      </c>
+      <c r="AK458" s="1" t="n">
+        <v>0.9267</v>
+      </c>
+      <c r="AL458" s="1" t="n">
+        <v>0.9267</v>
+      </c>
+      <c r="AO458" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ458" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR458" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AS458" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV458" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="D459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="E459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="F459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="G459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="H459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="I459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="J459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="K459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="L459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="M459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="N459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="R459" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S459" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T459" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U459" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="V459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="W459" s="1" t="n">
+        <v>1385484950</v>
+      </c>
+      <c r="X459" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y459" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z459" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="AB459" s="1" t="n">
+        <v>2770969900</v>
+      </c>
+      <c r="AC459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="AD459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="AE459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="AF459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="AG459" s="1" t="n">
+        <v>0.3788</v>
+      </c>
+      <c r="AH459" s="1" t="n">
+        <v>0.9517</v>
+      </c>
+      <c r="AI459" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ459" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK459" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL459" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO459" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ459" s="1" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR459" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS459" s="1" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AV459" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="D460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="E460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="F460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="G460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="H460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="I460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="J460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="K460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="L460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="M460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="N460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="P460" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q460" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R460" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S460" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T460" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U460" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="V460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="W460" s="1" t="n">
+        <v>1668390600</v>
+      </c>
+      <c r="X460" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y460" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z460" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="AB460" s="1" t="n">
+        <v>3336781200</v>
+      </c>
+      <c r="AC460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="AD460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="AE460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="AF460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="AG460" s="1" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="AH460" s="1" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="AI460" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ460" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK460" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL460" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO460" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ460" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR460" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS460" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AV460" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="D461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="E461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="F461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="G461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="H461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="I461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="J461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="K461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="L461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="M461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="N461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="R461" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S461" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T461" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U461" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="V461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="W461" s="1" t="n">
+        <v>2009063550</v>
+      </c>
+      <c r="X461" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y461" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z461" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="AB461" s="1" t="n">
+        <v>4018127100</v>
+      </c>
+      <c r="AC461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="AD461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="AE461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="AF461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="AG461" s="1" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="AH461" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ461" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK461" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL461" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO461" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ461" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR461" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS461" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AV461" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="D462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="E462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="F462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="G462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="H462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="I462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="J462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="K462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="L462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="M462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="N462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="R462" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S462" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U462" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="V462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="W462" s="1" t="n">
+        <v>2419299350</v>
+      </c>
+      <c r="X462" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y462" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z462" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="AB462" s="1" t="n">
+        <v>4838598700</v>
+      </c>
+      <c r="AC462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="AD462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="AE462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="AF462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="AG462" s="1" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="AH462" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ462" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK462" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL462" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO462" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ462" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR462" s="1" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS462" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AV462" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="D463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="E463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="F463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="G463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="H463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="I463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="J463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="K463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="L463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="M463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="N463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="R463" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S463" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U463" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="V463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="W463" s="1" t="n">
+        <v>2913302250</v>
+      </c>
+      <c r="X463" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y463" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z463" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="AB463" s="1" t="n">
+        <v>5826604500</v>
+      </c>
+      <c r="AC463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="AD463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="AE463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="AF463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="AG463" s="1" t="n">
+        <v>0.7617</v>
+      </c>
+      <c r="AH463" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ463" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK463" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL463" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO463" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ463" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="AR463" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AS463" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="AV463" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="D464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="E464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="F464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="G464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="H464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="I464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="J464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="K464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="L464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="M464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="N464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="R464" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S464" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U464" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="V464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="W464" s="1" t="n">
+        <v>3508176850</v>
+      </c>
+      <c r="X464" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y464" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z464" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="AB464" s="1" t="n">
+        <v>7016353700</v>
+      </c>
+      <c r="AC464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AD464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AE464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AF464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AG464" s="1" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AH464" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ464" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK464" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL464" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO464" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ464" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR464" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS464" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AV464" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="D465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="E465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="F465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="G465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="H465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="I465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="J465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="K465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="L465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="M465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="N465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="R465" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S465" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T465" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U465" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="V465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="W465" s="1" t="n">
+        <v>3858994535</v>
+      </c>
+      <c r="X465" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y465" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z465" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="AB465" s="1" t="n">
+        <v>7717989070</v>
+      </c>
+      <c r="AC465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="AD465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="AE465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="AF465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="AG465" s="1" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="AH465" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ465" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK465" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL465" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO465" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ465" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR465" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS465" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV465" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="D466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="E466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="F466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="G466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="H466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="I466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="J466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="K466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="L466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="M466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="N466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="R466" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S466" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T466" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U466" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="V466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="W466" s="1" t="n">
+        <v>3897584481</v>
+      </c>
+      <c r="X466" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y466" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z466" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="AB466" s="1" t="n">
+        <v>7795168961</v>
+      </c>
+      <c r="AC466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="AD466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="AE466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="AF466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="AG466" s="1" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="AH466" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ466" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK466" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL466" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO466" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ466" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR466" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS466" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AV466" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="D467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="E467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="F467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="G467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="H467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="I467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="J467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="K467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S467" s="1" t="n">
+        <v>99999</v>
+      </c>
+      <c r="T467" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U467" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W467" s="1" t="n">
+        <v>4000000000</v>
+      </c>
+      <c r="X467" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y467" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z467" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="AB467" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="AC467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AJ467" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK467" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AL467" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AO467" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ467" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR467" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS467" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV467" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/resources/data-imports/Monsters/monsters.xlsx
+++ b/resources/data-imports/Monsters/monsters.xlsx
@@ -2615,7 +2615,7 @@
     <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -41104,7 +41104,7 @@
         <v>10000000000</v>
       </c>
       <c r="J338">
-        <v>10000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K338">
         <v>0.001</v>
@@ -41229,7 +41229,7 @@
         <v>10166404394</v>
       </c>
       <c r="J339">
-        <v>10166404394</v>
+        <v>4000000000</v>
       </c>
       <c r="K339">
         <v>0.0012</v>
@@ -41354,7 +41354,7 @@
         <v>10335577831</v>
       </c>
       <c r="J340">
-        <v>10335577831</v>
+        <v>4000000000</v>
       </c>
       <c r="K340">
         <v>0.0014</v>
@@ -41479,7 +41479,7 @@
         <v>10507566387</v>
       </c>
       <c r="J341">
-        <v>10507566387</v>
+        <v>4000000000</v>
       </c>
       <c r="K341">
         <v>0.0016</v>
@@ -41604,7 +41604,7 @@
         <v>10682416909</v>
       </c>
       <c r="J342">
-        <v>10682416909</v>
+        <v>4000000000</v>
       </c>
       <c r="K342">
         <v>0.0019</v>
@@ -41729,7 +41729,7 @@
         <v>10860177020</v>
       </c>
       <c r="J343">
-        <v>10860177020</v>
+        <v>4000000000</v>
       </c>
       <c r="K343">
         <v>0.0023</v>
@@ -41860,7 +41860,7 @@
         <v>11040895137</v>
       </c>
       <c r="J344">
-        <v>11040895137</v>
+        <v>4000000000</v>
       </c>
       <c r="K344">
         <v>0.0027</v>
@@ -41985,7 +41985,7 @@
         <v>11224620484</v>
       </c>
       <c r="J345">
-        <v>11224620484</v>
+        <v>4000000000</v>
       </c>
       <c r="K345">
         <v>0.0032</v>
@@ -42110,7 +42110,7 @@
         <v>11411403100</v>
       </c>
       <c r="J346">
-        <v>11411403100</v>
+        <v>4000000000</v>
       </c>
       <c r="K346">
         <v>0.0037</v>
@@ -42235,7 +42235,7 @@
         <v>11601293862</v>
       </c>
       <c r="J347">
-        <v>11601293862</v>
+        <v>4000000000</v>
       </c>
       <c r="K347">
         <v>0.0044</v>
@@ -42360,7 +42360,7 @@
         <v>11794344489</v>
       </c>
       <c r="J348">
-        <v>11794344489</v>
+        <v>4000000000</v>
       </c>
       <c r="K348">
         <v>0.0052</v>
@@ -42485,7 +42485,7 @@
         <v>11990607564</v>
       </c>
       <c r="J349">
-        <v>11990607564</v>
+        <v>4000000000</v>
       </c>
       <c r="K349">
         <v>0.0061</v>
@@ -42610,7 +42610,7 @@
         <v>12190136543</v>
       </c>
       <c r="J350">
-        <v>12190136543</v>
+        <v>4000000000</v>
       </c>
       <c r="K350">
         <v>0.0072</v>
@@ -42735,7 +42735,7 @@
         <v>12392985771</v>
       </c>
       <c r="J351">
-        <v>12392985771</v>
+        <v>4000000000</v>
       </c>
       <c r="K351">
         <v>0.0085</v>
@@ -42860,7 +42860,7 @@
         <v>12599210499</v>
       </c>
       <c r="J352">
-        <v>12599210499</v>
+        <v>4000000000</v>
       </c>
       <c r="K352">
         <v>0.01</v>
@@ -42985,7 +42985,7 @@
         <v>12808866898</v>
       </c>
       <c r="J353">
-        <v>12808866898</v>
+        <v>4000000000</v>
       </c>
       <c r="K353">
         <v>0.0118</v>
@@ -43110,7 +43110,7 @@
         <v>13022012071</v>
       </c>
       <c r="J354">
-        <v>13022012071</v>
+        <v>4000000000</v>
       </c>
       <c r="K354">
         <v>0.0139</v>
@@ -43235,7 +43235,7 @@
         <v>13238704074</v>
       </c>
       <c r="J355">
-        <v>13238704074</v>
+        <v>4000000000</v>
       </c>
       <c r="K355">
         <v>0.0164</v>
@@ -43360,7 +43360,7 @@
         <v>13459001927</v>
       </c>
       <c r="J356">
-        <v>13459001927</v>
+        <v>4000000000</v>
       </c>
       <c r="K356">
         <v>0.0193</v>
@@ -43491,7 +43491,7 @@
         <v>13682965633</v>
       </c>
       <c r="J357">
-        <v>13682965633</v>
+        <v>4000000000</v>
       </c>
       <c r="K357">
         <v>0.0228</v>
@@ -43616,7 +43616,7 @@
         <v>13910656193</v>
       </c>
       <c r="J358">
-        <v>13910656193</v>
+        <v>4000000000</v>
       </c>
       <c r="K358">
         <v>0.0268</v>
@@ -43741,7 +43741,7 @@
         <v>14142135624</v>
       </c>
       <c r="J359">
-        <v>14142135624</v>
+        <v>4000000000</v>
       </c>
       <c r="K359">
         <v>0.0316</v>
@@ -43866,7 +43866,7 @@
         <v>17973985648</v>
       </c>
       <c r="J360">
-        <v>17973985648</v>
+        <v>4000000000</v>
       </c>
       <c r="K360">
         <v>0.0466</v>
@@ -43991,7 +43991,7 @@
         <v>18459466089</v>
       </c>
       <c r="J361">
-        <v>18459466089</v>
+        <v>4000000000</v>
       </c>
       <c r="K361">
         <v>0.0555</v>
@@ -44116,7 +44116,7 @@
         <v>18958059441</v>
       </c>
       <c r="J362">
-        <v>18958059441</v>
+        <v>4000000000</v>
       </c>
       <c r="K362">
         <v>0.0661</v>
@@ -44241,7 +44241,7 @@
         <v>19470119885</v>
       </c>
       <c r="J363">
-        <v>19470119885</v>
+        <v>4000000000</v>
       </c>
       <c r="K363">
         <v>0.0787</v>
@@ -44366,7 +44366,7 @@
         <v>19996011170</v>
       </c>
       <c r="J364">
-        <v>19996011170</v>
+        <v>4000000000</v>
       </c>
       <c r="K364">
         <v>0.0937</v>
@@ -44491,7 +44491,7 @@
         <v>20000000000</v>
       </c>
       <c r="J365">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K365">
         <v>0.1116</v>
@@ -44616,7 +44616,7 @@
         <v>20000000000</v>
       </c>
       <c r="J366">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K366">
         <v>0.1329</v>
@@ -44741,7 +44741,7 @@
         <v>20000000000</v>
       </c>
       <c r="J367">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K367">
         <v>0.1582</v>
@@ -44866,7 +44866,7 @@
         <v>20000000000</v>
       </c>
       <c r="J368">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K368">
         <v>0.1884</v>
@@ -44991,7 +44991,7 @@
         <v>20000000000</v>
       </c>
       <c r="J369">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K369">
         <v>0.2243</v>
@@ -45116,7 +45116,7 @@
         <v>20000000000</v>
       </c>
       <c r="J370">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K370">
         <v>0.2671</v>
@@ -45241,7 +45241,7 @@
         <v>20000000000</v>
       </c>
       <c r="J371">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K371">
         <v>0.3181</v>
@@ -45366,7 +45366,7 @@
         <v>20000000000</v>
       </c>
       <c r="J372">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K372">
         <v>0.3788</v>
@@ -45491,7 +45491,7 @@
         <v>20000000000</v>
       </c>
       <c r="J373">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K373">
         <v>0.4511</v>
@@ -45622,7 +45622,7 @@
         <v>20000000000</v>
       </c>
       <c r="J374">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K374">
         <v>0.5371</v>
@@ -45747,7 +45747,7 @@
         <v>20000000000</v>
       </c>
       <c r="J375">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K375">
         <v>0.6396</v>
@@ -45872,7 +45872,7 @@
         <v>20000000000</v>
       </c>
       <c r="J376">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K376">
         <v>0.7617</v>
@@ -45997,7 +45997,7 @@
         <v>20000000000</v>
       </c>
       <c r="J377">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K377">
         <v>0.907</v>
@@ -46122,7 +46122,7 @@
         <v>20000000000</v>
       </c>
       <c r="J378">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K378">
         <v>1</v>
@@ -46247,7 +46247,7 @@
         <v>20000000000</v>
       </c>
       <c r="J379">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K379">
         <v>1</v>
@@ -46372,7 +46372,7 @@
         <v>20000000000</v>
       </c>
       <c r="J380">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K380">
         <v>1</v>
@@ -49271,7 +49271,7 @@
         <v>4247355932</v>
       </c>
       <c r="J403">
-        <v>4247355932</v>
+        <v>4000000000</v>
       </c>
       <c r="K403">
         <v>0.0466</v>
@@ -49396,7 +49396,7 @@
         <v>4395277736</v>
       </c>
       <c r="J404">
-        <v>4395277736</v>
+        <v>4000000000</v>
       </c>
       <c r="K404">
         <v>0.0555</v>
@@ -49521,7 +49521,7 @@
         <v>4548351182</v>
       </c>
       <c r="J405">
-        <v>4548351182</v>
+        <v>4000000000</v>
       </c>
       <c r="K405">
         <v>0.0661</v>
@@ -49646,7 +49646,7 @@
         <v>4706755686</v>
       </c>
       <c r="J406">
-        <v>4706755686</v>
+        <v>4000000000</v>
       </c>
       <c r="K406">
         <v>0.0787</v>
@@ -49783,7 +49783,7 @@
         <v>4870676912</v>
       </c>
       <c r="J407">
-        <v>4870676912</v>
+        <v>4000000000</v>
       </c>
       <c r="K407">
         <v>0.0937</v>
@@ -49908,7 +49908,7 @@
         <v>5040306990</v>
       </c>
       <c r="J408">
-        <v>5040306990</v>
+        <v>4000000000</v>
       </c>
       <c r="K408">
         <v>0.1116</v>
@@ -50033,7 +50033,7 @@
         <v>5215844739</v>
       </c>
       <c r="J409">
-        <v>5215844739</v>
+        <v>4000000000</v>
       </c>
       <c r="K409">
         <v>0.1329</v>
@@ -50158,7 +50158,7 @@
         <v>5397495906</v>
       </c>
       <c r="J410">
-        <v>5397495906</v>
+        <v>4000000000</v>
       </c>
       <c r="K410">
         <v>0.1582</v>
@@ -50283,7 +50283,7 @@
         <v>5500000000</v>
       </c>
       <c r="J411">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K411">
         <v>0.1884</v>
@@ -50408,7 +50408,7 @@
         <v>5500000000</v>
       </c>
       <c r="J412">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K412">
         <v>0.2243</v>
@@ -50533,7 +50533,7 @@
         <v>5500000000</v>
       </c>
       <c r="J413">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K413">
         <v>0.2671</v>
@@ -50658,7 +50658,7 @@
         <v>5500000000</v>
       </c>
       <c r="J414">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K414">
         <v>0.3181</v>
@@ -50783,7 +50783,7 @@
         <v>5500000000</v>
       </c>
       <c r="J415">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K415">
         <v>0.3788</v>
@@ -50908,7 +50908,7 @@
         <v>5500000000</v>
       </c>
       <c r="J416">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K416">
         <v>0.4511</v>
@@ -51039,7 +51039,7 @@
         <v>5500000000</v>
       </c>
       <c r="J417">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K417">
         <v>0.5371</v>
@@ -51164,7 +51164,7 @@
         <v>5500000000</v>
       </c>
       <c r="J418">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K418">
         <v>0.6396</v>
@@ -51289,7 +51289,7 @@
         <v>5500000000</v>
       </c>
       <c r="J419">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K419">
         <v>0.7617</v>
@@ -51414,7 +51414,7 @@
         <v>5500000000</v>
       </c>
       <c r="J420">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K420">
         <v>0.907</v>
@@ -51539,7 +51539,7 @@
         <v>5500000000</v>
       </c>
       <c r="J421">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K421">
         <v>1</v>
@@ -51664,7 +51664,7 @@
         <v>5500000000</v>
       </c>
       <c r="J422">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K422">
         <v>1</v>
@@ -51789,7 +51789,7 @@
         <v>5500000000</v>
       </c>
       <c r="J423">
-        <v>5500000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K423">
         <v>1</v>
@@ -51926,7 +51926,7 @@
         <v>10000000000</v>
       </c>
       <c r="J424">
-        <v>10000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K424">
         <v>0.001</v>
@@ -52051,7 +52051,7 @@
         <v>10166404394</v>
       </c>
       <c r="J425">
-        <v>10166404394</v>
+        <v>4000000000</v>
       </c>
       <c r="K425">
         <v>0.0012</v>
@@ -52176,7 +52176,7 @@
         <v>10335577831</v>
       </c>
       <c r="J426">
-        <v>10335577831</v>
+        <v>4000000000</v>
       </c>
       <c r="K426">
         <v>0.0014</v>
@@ -52301,7 +52301,7 @@
         <v>10507566387</v>
       </c>
       <c r="J427">
-        <v>10507566387</v>
+        <v>4000000000</v>
       </c>
       <c r="K427">
         <v>0.0016</v>
@@ -52426,7 +52426,7 @@
         <v>10682416909</v>
       </c>
       <c r="J428">
-        <v>10682416909</v>
+        <v>4000000000</v>
       </c>
       <c r="K428">
         <v>0.0019</v>
@@ -52551,7 +52551,7 @@
         <v>10860177020</v>
       </c>
       <c r="J429">
-        <v>10860177020</v>
+        <v>4000000000</v>
       </c>
       <c r="K429">
         <v>0.0023</v>
@@ -52682,7 +52682,7 @@
         <v>11040895137</v>
       </c>
       <c r="J430">
-        <v>11040895137</v>
+        <v>4000000000</v>
       </c>
       <c r="K430">
         <v>0.0027</v>
@@ -52807,7 +52807,7 @@
         <v>11224620484</v>
       </c>
       <c r="J431">
-        <v>11224620484</v>
+        <v>4000000000</v>
       </c>
       <c r="K431">
         <v>0.0032</v>
@@ -52932,7 +52932,7 @@
         <v>11411403100</v>
       </c>
       <c r="J432">
-        <v>11411403100</v>
+        <v>4000000000</v>
       </c>
       <c r="K432">
         <v>0.0037</v>
@@ -53057,7 +53057,7 @@
         <v>11601293862</v>
       </c>
       <c r="J433">
-        <v>11601293862</v>
+        <v>4000000000</v>
       </c>
       <c r="K433">
         <v>0.0044</v>
@@ -53182,7 +53182,7 @@
         <v>11794344489</v>
       </c>
       <c r="J434">
-        <v>11794344489</v>
+        <v>4000000000</v>
       </c>
       <c r="K434">
         <v>0.0052</v>
@@ -53307,7 +53307,7 @@
         <v>11990607564</v>
       </c>
       <c r="J435">
-        <v>11990607564</v>
+        <v>4000000000</v>
       </c>
       <c r="K435">
         <v>0.0061</v>
@@ -53432,7 +53432,7 @@
         <v>12190136543</v>
       </c>
       <c r="J436">
-        <v>12190136543</v>
+        <v>4000000000</v>
       </c>
       <c r="K436">
         <v>0.0072</v>
@@ -53557,7 +53557,7 @@
         <v>12392985771</v>
       </c>
       <c r="J437">
-        <v>12392985771</v>
+        <v>4000000000</v>
       </c>
       <c r="K437">
         <v>0.0085</v>
@@ -53682,7 +53682,7 @@
         <v>12599210499</v>
       </c>
       <c r="J438">
-        <v>12599210499</v>
+        <v>4000000000</v>
       </c>
       <c r="K438">
         <v>0.01</v>
@@ -53807,7 +53807,7 @@
         <v>12808866898</v>
       </c>
       <c r="J439">
-        <v>12808866898</v>
+        <v>4000000000</v>
       </c>
       <c r="K439">
         <v>0.0118</v>
@@ -53932,7 +53932,7 @@
         <v>13022012071</v>
       </c>
       <c r="J440">
-        <v>13022012071</v>
+        <v>4000000000</v>
       </c>
       <c r="K440">
         <v>0.0139</v>
@@ -54057,7 +54057,7 @@
         <v>13238704074</v>
       </c>
       <c r="J441">
-        <v>13238704074</v>
+        <v>4000000000</v>
       </c>
       <c r="K441">
         <v>0.0164</v>
@@ -54182,7 +54182,7 @@
         <v>13459001927</v>
       </c>
       <c r="J442">
-        <v>13459001927</v>
+        <v>4000000000</v>
       </c>
       <c r="K442">
         <v>0.0193</v>
@@ -54313,7 +54313,7 @@
         <v>13682965633</v>
       </c>
       <c r="J443">
-        <v>13682965633</v>
+        <v>4000000000</v>
       </c>
       <c r="K443">
         <v>0.0228</v>
@@ -54438,7 +54438,7 @@
         <v>13910656193</v>
       </c>
       <c r="J444">
-        <v>13910656193</v>
+        <v>4000000000</v>
       </c>
       <c r="K444">
         <v>0.0268</v>
@@ -54563,7 +54563,7 @@
         <v>14142135624</v>
       </c>
       <c r="J445">
-        <v>14142135624</v>
+        <v>4000000000</v>
       </c>
       <c r="K445">
         <v>0.0316</v>
@@ -54688,7 +54688,7 @@
         <v>17973985648</v>
       </c>
       <c r="J446">
-        <v>17973985648</v>
+        <v>4000000000</v>
       </c>
       <c r="K446">
         <v>0.0466</v>
@@ -54813,7 +54813,7 @@
         <v>18459466089</v>
       </c>
       <c r="J447">
-        <v>18459466089</v>
+        <v>4000000000</v>
       </c>
       <c r="K447">
         <v>0.0555</v>
@@ -54938,7 +54938,7 @@
         <v>18958059441</v>
       </c>
       <c r="J448">
-        <v>18958059441</v>
+        <v>4000000000</v>
       </c>
       <c r="K448">
         <v>0.0661</v>
@@ -55063,7 +55063,7 @@
         <v>19470119885</v>
       </c>
       <c r="J449">
-        <v>19470119885</v>
+        <v>4000000000</v>
       </c>
       <c r="K449">
         <v>0.0787</v>
@@ -55188,7 +55188,7 @@
         <v>19996011170</v>
       </c>
       <c r="J450">
-        <v>19996011170</v>
+        <v>4000000000</v>
       </c>
       <c r="K450">
         <v>0.0937</v>
@@ -55313,7 +55313,7 @@
         <v>20000000000</v>
       </c>
       <c r="J451">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K451">
         <v>0.1116</v>
@@ -55438,7 +55438,7 @@
         <v>20000000000</v>
       </c>
       <c r="J452">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K452">
         <v>0.1329</v>
@@ -55563,7 +55563,7 @@
         <v>20000000000</v>
       </c>
       <c r="J453">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K453">
         <v>0.1582</v>
@@ -55688,7 +55688,7 @@
         <v>20000000000</v>
       </c>
       <c r="J454">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K454">
         <v>0.1884</v>
@@ -55813,7 +55813,7 @@
         <v>20000000000</v>
       </c>
       <c r="J455">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K455">
         <v>0.2243</v>
@@ -55938,7 +55938,7 @@
         <v>20000000000</v>
       </c>
       <c r="J456">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K456">
         <v>0.2671</v>
@@ -56063,7 +56063,7 @@
         <v>20000000000</v>
       </c>
       <c r="J457">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K457">
         <v>0.3181</v>
@@ -56188,7 +56188,7 @@
         <v>20000000000</v>
       </c>
       <c r="J458">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K458">
         <v>0.3788</v>
@@ -56313,7 +56313,7 @@
         <v>20000000000</v>
       </c>
       <c r="J459">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K459">
         <v>0.4511</v>
@@ -56444,7 +56444,7 @@
         <v>20000000000</v>
       </c>
       <c r="J460">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K460">
         <v>0.5371</v>
@@ -56569,7 +56569,7 @@
         <v>20000000000</v>
       </c>
       <c r="J461">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K461">
         <v>0.6396</v>
@@ -56694,7 +56694,7 @@
         <v>20000000000</v>
       </c>
       <c r="J462">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K462">
         <v>0.7617</v>
@@ -56819,7 +56819,7 @@
         <v>20000000000</v>
       </c>
       <c r="J463">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K463">
         <v>0.907</v>
@@ -56944,7 +56944,7 @@
         <v>20000000000</v>
       </c>
       <c r="J464">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K464">
         <v>1</v>
@@ -57069,7 +57069,7 @@
         <v>20000000000</v>
       </c>
       <c r="J465">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K465">
         <v>1</v>
@@ -57194,7 +57194,7 @@
         <v>20000000000</v>
       </c>
       <c r="J466">
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K466">
         <v>1</v>
